--- a/data/trans_bre/P54_A_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>-10,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>12,89%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 6,59</t>
+          <t>-13,78; 6,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 12,17</t>
+          <t>-4,49; 17,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 17,66</t>
+          <t>-2,65; 18,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 72,26</t>
+          <t>-61,04; 78,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 20,02</t>
+          <t>-6,39; 31,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 29,49</t>
+          <t>-3,8; 32,95</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,97</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>12,54%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 16,85</t>
+          <t>-5,84; 12,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 18,02</t>
+          <t>-1,81; 20,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 18,35</t>
+          <t>-0,97; 20,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 152,85</t>
+          <t>-30,31; 129,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 27,6</t>
+          <t>-2,25; 31,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 26,95</t>
+          <t>-1,12; 32,75</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,47</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>-34,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>22,81%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 17,69</t>
+          <t>-55,12; 17,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 24,78</t>
+          <t>-17,75; 28,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 35,2</t>
+          <t>-3,0; 39,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-71,92; 305,5</t>
+          <t>-96,77; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 40,92</t>
+          <t>-19,69; 49,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 67,78</t>
+          <t>-3,35; 74,94</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 9,08</t>
+          <t>-8,98; 6,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 11,3</t>
+          <t>0,04; 14,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 15,55</t>
+          <t>1,52; 16,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 84,37</t>
+          <t>-41,14; 54,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 16,96</t>
+          <t>0,05; 22,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 23,71</t>
+          <t>2,08; 25,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,41%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.492890043128853</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.107726930473057</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.835520635887107</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1040734090582269</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1116311361053468</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1349148902853718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,78; 6,62</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 17,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 18,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-61,04; 78,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-6,39; 31,4</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 32,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.78422338512643</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.277828737431964</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.490365801207449</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6104238229548434</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.04736182029073029</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.02042336369349338</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.62103107997832</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.11270988837278</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.44360780380722</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.7817529641332254</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.3184871955718278</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3338452022357472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,05</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,1%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,27%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 12,68</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 20,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 20,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-30,31; 129,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 31,78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 32,75</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.708457420408098</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.83600348942678</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.275118576106323</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2610253053391745</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1728880138722165</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1283108478247392</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-9,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-34,24%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>22,81%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.83894325234757</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.570459890023941</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.7610527590538348</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3031038994378789</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.008458579061316905</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.009573817249099777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-55,12; 17,79</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,75; 28,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 39,53</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-96,77; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-19,69; 49,77</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 74,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.6777930210422</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.74534092760261</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.4270042916146</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.292786348260902</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.435042047000361</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3389822246899248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-9.044492694871801</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.516839980407219</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>21.34683446238839</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.3423814683709711</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.08594868013739977</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3102234745503608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; 6,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 14,08</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 16,54</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-41,14; 54,87</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 22,13</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 25,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-55.12089751437193</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.77882313072115</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7123389141579048</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.9677224434789553</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2056616551879144</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.01413468241424882</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.78556310722749</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>27.23940091627273</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>45.89623381344617</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="n">
+        <v>0.4630969078728724</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.9740805297115057</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.3475564010983284</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.797462996523608</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.09433425147975</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.02217490587635043</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1314410578404768</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1468561549047036</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.976959948979827</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.044580024412771</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.225651766200365</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.411436535655627</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.01482160442430689</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.03149670994887891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.074572071168002</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.95260717587296</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.40652137120692</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5487168650744418</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2634826102385706</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2734262464771218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -921,12 +936,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
